--- a/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/future_2.xlsx
+++ b/noah lab/cash-burn-rate/8.27/EnterpCashPredict/data/future_2.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="forcast3" sheetId="3" r:id="rId3"/>
+    <sheet name="1123" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>Rev</t>
   </si>
@@ -142,6 +143,69 @@
   </si>
   <si>
     <t>无</t>
+  </si>
+  <si>
+    <t>Number of Employees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg. Days Inventory Out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash from Ops./EBITDA % </t>
+  </si>
+  <si>
+    <t>Return on Assets %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisitions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodwill/Total Revenue % </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repurchase of Common Stock </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>每百万收入需要多少人</t>
+  </si>
+  <si>
+    <t>source:trading economics (forecast methodology:ARIMA)</t>
+  </si>
+  <si>
+    <t>Payout Ratio %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflation (CPI) % </t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>无评级</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>发展阶段</t>
+  </si>
+  <si>
+    <t>Y2  %</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Y5  %</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7 %</t>
   </si>
 </sst>
 </file>
@@ -149,13 +213,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -192,8 +249,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,7 +287,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -224,7 +318,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -238,6 +340,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,31 +355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,45 +377,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,43 +387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,43 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,7 +429,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,61 +573,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,11 +602,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -597,191 +684,188 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1133,792 +1217,792 @@
   <sheetPr/>
   <dimension ref="A1:AQ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI$1:AI$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="2:43">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="2:43">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:43">
-      <c r="A2" s="1">
+    <row r="2" spans="1:43">
+      <c r="A2" s="8">
         <v>2016</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>80800</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>28.6419359974526</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="8">
         <v>7.52271365162526</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>41.6137376237624</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="8">
         <v>27.7253814907798</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="8">
         <v>161.744170189862</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="8">
         <v>12.039338611005</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="8">
         <v>61.0932585781015</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="8">
         <v>1.13875190845629</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="8">
         <v>74</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="8">
         <v>0.840735383531671</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="8">
         <v>60</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="8">
         <v>29.4662016697302</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="11">
         <v>2.1039603960396</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="8">
         <v>0.0364288133039519</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="8">
         <v>47.1882776237624</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="8">
         <v>69.1033892294991</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="8">
         <v>-1.12070707457531</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="8">
         <v>-1.72557917075954</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="8">
         <v>23.2265236554518</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="8">
         <v>28.6419359974526</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Y2" s="8">
         <v>0.75</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="8">
         <v>0.434166996047431</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="8">
         <v>137.467266122901</v>
       </c>
-      <c r="AB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1">
+      <c r="AB2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="8">
         <v>0.0247601976284585</v>
       </c>
-      <c r="AD2" s="1">
+      <c r="AD2" s="8">
         <v>-100</v>
       </c>
-      <c r="AE2" s="1">
+      <c r="AE2" s="8">
         <v>1.8</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="8">
         <v>1</v>
       </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
+      <c r="AG2" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="8">
         <v>2.47386372201892</v>
       </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="8">
         <v>-1.85211146137525</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AJ2" s="8">
         <v>47176.1</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AK2" s="8">
         <v>8.56650452755847</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AL2" s="8">
         <v>11.898697208926</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AM2" s="8">
         <v>9614.14734481221</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AN2" s="8">
         <v>102.25952100414</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AO2" s="8">
         <v>6078.35263051321</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AP2" s="8">
         <v>87.9049809543392</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AQ2" s="8">
         <v>70954.8755966816</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:43">
-      <c r="A3" s="1">
+    <row r="3" spans="1:43">
+      <c r="A3" s="8">
         <v>2017</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>97000</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>20.049504950495</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="8">
         <v>6.18505805741215</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <v>40.4840824742268</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="8">
         <v>23.8586901199394</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="8">
         <v>101.674503991901</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
         <v>11.0468980574</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="8">
         <v>52.3915077316384</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="8">
         <v>1.18041770902162</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="8">
         <v>70</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="8">
         <v>1.05451794060967</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="8">
         <v>60</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="8">
         <v>42.074285480594</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="11">
         <v>1.85567010309278</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="8">
         <v>0.0369893194651774</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="8">
         <v>47.2946639175258</v>
       </c>
-      <c r="T3" s="1">
+      <c r="T3" s="8">
         <v>69.4001299802111</v>
       </c>
-      <c r="U3" s="1">
+      <c r="U3" s="8">
         <v>-1.12965514953556</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="8">
         <v>-0.452619368438922</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="8">
         <v>15.8120568903676</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="8">
         <v>20.049504950495</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Y3" s="8">
         <v>0.75</v>
       </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
+      <c r="Z3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="8">
         <v>2</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AF3" s="8">
         <v>1</v>
       </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
+      <c r="AG3" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="8">
         <v>1.61054134393416</v>
       </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="8">
         <v>-1.33765559421311</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AJ3" s="8">
         <v>57730.44</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AK3" s="8">
         <v>7.30095206229617</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AL3" s="8">
         <v>11.4460778404871</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AM3" s="8">
         <v>11102.6955052725</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AN3" s="8">
         <v>54.9413274059766</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AO3" s="8">
         <v>5999.50631568979</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AP3" s="8">
         <v>75.0968438141126</v>
       </c>
-      <c r="AQ3" s="1">
+      <c r="AQ3" s="8">
         <v>82174.3008925185</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:43">
-      <c r="A4" s="1">
+    <row r="4" spans="1:43">
+      <c r="A4" s="8">
         <v>2018</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>112000</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>15.4639175257732</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="8">
         <v>5.74472313906063</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>39.3726785714286</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="8">
         <v>22.1719668652416</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="8">
         <v>150.319321288211</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="8">
         <v>9.48689783449034</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <v>10</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="8">
         <v>48.8408757875251</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="8">
         <v>1.18545754704969</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="8">
         <v>70</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="8">
         <v>1.20296712069324</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="8">
         <v>60</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="8">
         <v>46.7968763217046</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="11">
         <v>1.60714285714286</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="8">
         <v>0.0365617725033631</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="8">
         <v>45.47125</v>
       </c>
-      <c r="T4" s="1">
+      <c r="T4" s="8">
         <v>69.2857901566343</v>
       </c>
-      <c r="U4" s="1">
+      <c r="U4" s="8">
         <v>-1.11140390279825</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="8">
         <v>0.34946736979885</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="8">
         <v>14.9730358034674</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="8">
         <v>15.4639175257732</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Y4" s="8">
         <v>2.25</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="Z4" s="8">
         <v>1.5</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="AA4" s="8">
         <v>200</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AB4" s="8">
         <v>0.5</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AC4" s="8">
         <v>0.5</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AD4" s="8">
         <v>100</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AE4" s="8">
         <v>2.2</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AF4" s="8">
         <v>1</v>
       </c>
-      <c r="AG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
+      <c r="AG4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
         <v>0.94642385633577</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="8">
         <v>-0.440334918351527</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AJ4" s="8">
         <v>67902.6</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AK4" s="8">
         <v>6.8101254009104</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AL4" s="8">
         <v>11.7955452102859</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AM4" s="8">
         <v>13211.0106355202</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AN4" s="8">
         <v>73.2092385606091</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AO4" s="8">
         <v>6434.0899157479</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AP4" s="8">
         <v>73.3696257875251</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AQ4" s="8">
         <v>94478.2883864043</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:43">
-      <c r="A5" s="1">
+    <row r="5" spans="1:43">
+      <c r="A5" s="8">
         <v>2019</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>129000</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>15.1785714285714</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="8">
         <v>4.96821192786859</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <v>38.6589147286822</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="8">
         <v>19.5363960559582</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="8">
         <v>178.98250893457</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="8">
         <v>7.82177336839575</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <v>10</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="8">
         <v>35.1169493983505</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="8">
         <v>1.20828907724398</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="8">
         <v>70</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="8">
         <v>1.31744979538208</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="8">
         <v>60</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="8">
         <v>44.4438989554649</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="11">
         <v>1.3953488372093</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="8">
         <v>0.0361248344714512</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="8">
         <v>41.0979224806202</v>
       </c>
-      <c r="T5" s="1">
+      <c r="T5" s="8">
         <v>69.2732729373929</v>
       </c>
-      <c r="U5" s="1">
+      <c r="U5" s="8">
         <v>-0.713763842746388</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="8">
         <v>-0.867358001311431</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="8">
         <v>13.002185759916</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="8">
         <v>15.1785714285714</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Y5" s="8">
         <v>2.25</v>
       </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1">
+      <c r="Z5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="8">
         <v>0.5</v>
       </c>
-      <c r="AC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1">
+      <c r="AC5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="8">
         <v>2.6</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AF5" s="8">
         <v>1</v>
       </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
+      <c r="AG5" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="8">
         <v>0.543184587442818</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="8">
         <v>-0.776511211192036</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AJ5" s="8">
         <v>79130</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AK5" s="8">
         <v>6.00303620587688</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AL5" s="8">
         <v>10.9281872089745</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AM5" s="8">
         <v>14097.3614995771</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AN5" s="8">
         <v>81.3696744724802</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AO5" s="8">
         <v>6408.99338695048</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AP5" s="8">
         <v>64.0190269177303</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AQ5" s="8">
         <v>106762.530945194</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:43">
-      <c r="A6" s="1">
+    <row r="6" spans="1:43">
+      <c r="A6" s="8">
         <v>2020</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>151700</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>17.5968992248062</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>4.74227960811828</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>38.2213579433092</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>19.1319287879251</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>215.90608864</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>6.39861744786583</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <v>10</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="8">
         <v>26.5841264787872</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="8">
         <v>1.2446695272915</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="8">
         <v>70</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="8">
         <v>1.37557130290264</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="8">
         <v>60</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="8">
         <v>38.7742621473794</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="11">
         <v>1.1865524060646</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="8">
         <v>0.0348343121647115</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="8">
         <v>39.0985998681608</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="8">
         <v>69.1486941362837</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="8">
         <v>-0.437556785373012</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="8">
         <v>-0.182728320503819</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="8">
         <v>14.1596590384081</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="8">
         <v>17.5968992248062</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="8">
         <v>2.25</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1">
+      <c r="Z6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="8">
         <v>0.5</v>
       </c>
-      <c r="AC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="8">
         <v>3</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AF6" s="8">
         <v>1</v>
       </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
+      <c r="AG6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="8">
         <v>0.5273566249176</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="8">
         <v>-0.225932319750306</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AJ6" s="8">
         <v>93718.2</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AK6" s="8">
         <v>5.90257091812071</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AL6" s="8">
         <v>10.7454588884707</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AM6" s="8">
         <v>16300.86113381</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AN6" s="8">
         <v>95.2855575600061</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AO6" s="8">
         <v>7194.03816551544</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AP6" s="8">
         <v>57.4855266106263</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AQ6" s="8">
         <v>121879.741307808</v>
       </c>
     </row>
@@ -1932,14 +2016,1069 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A5:AZ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7:AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="23" width="12.625"/>
+    <col min="27" max="34" width="12.625"/>
+    <col min="35" max="38" width="13.75"/>
+    <col min="39" max="44" width="12.625"/>
+    <col min="46" max="48" width="13.75"/>
+    <col min="49" max="52" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:32">
+      <c r="A5" s="8">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8">
+        <v>25</v>
+      </c>
+      <c r="D5" s="8">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8">
+        <v>76</v>
+      </c>
+      <c r="G5" s="4">
+        <v>96</v>
+      </c>
+      <c r="H5" s="8">
+        <v>116</v>
+      </c>
+      <c r="I5" s="8">
+        <v>136</v>
+      </c>
+      <c r="J5" s="8">
+        <v>156</v>
+      </c>
+      <c r="K5" s="8">
+        <v>176</v>
+      </c>
+      <c r="L5" s="8">
+        <v>216</v>
+      </c>
+      <c r="M5" s="4">
+        <v>236</v>
+      </c>
+      <c r="N5" s="4">
+        <v>256</v>
+      </c>
+      <c r="O5" s="8">
+        <v>276</v>
+      </c>
+      <c r="P5" s="8">
+        <v>296</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>316</v>
+      </c>
+      <c r="R5" s="8">
+        <v>336</v>
+      </c>
+      <c r="S5" s="4">
+        <v>356</v>
+      </c>
+      <c r="T5" s="8">
+        <v>396</v>
+      </c>
+      <c r="U5" s="4">
+        <v>416</v>
+      </c>
+      <c r="V5" s="8">
+        <v>436</v>
+      </c>
+      <c r="W5" s="8">
+        <v>496</v>
+      </c>
+      <c r="X5" s="8">
+        <v>516</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>556</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>796</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>816</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>856</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>876</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>896</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>916</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="10">
+        <v>170000</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.64288133039519</v>
+      </c>
+      <c r="D7" s="3">
+        <v>80800</v>
+      </c>
+      <c r="E7" s="8">
+        <v>28.6419359974526</v>
+      </c>
+      <c r="F7" s="8">
+        <v>47.1882776237624</v>
+      </c>
+      <c r="G7" s="4">
+        <v>87.9049809543392</v>
+      </c>
+      <c r="H7" s="8">
+        <v>74</v>
+      </c>
+      <c r="I7" s="8">
+        <v>61.0932585781015</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1.13875190845629</v>
+      </c>
+      <c r="K7" s="8">
+        <v>6078.35263051321</v>
+      </c>
+      <c r="L7" s="8">
+        <v>9614.14734481221</v>
+      </c>
+      <c r="M7" s="4">
+        <v>95.8771187192969</v>
+      </c>
+      <c r="N7" s="4">
+        <v>161.744170189862</v>
+      </c>
+      <c r="O7" s="8">
+        <v>7.52271365162526</v>
+      </c>
+      <c r="P7" s="8">
+        <v>41.6137376237624</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>11.898697208926</v>
+      </c>
+      <c r="R7" s="8">
+        <v>27.7253814907798</v>
+      </c>
+      <c r="S7" s="4">
+        <v>8.56650452755847</v>
+      </c>
+      <c r="T7" s="8">
+        <v>70954.8755966816</v>
+      </c>
+      <c r="U7" s="4">
+        <v>69.1033892294991</v>
+      </c>
+      <c r="V7" s="8">
+        <v>29.4662016697302</v>
+      </c>
+      <c r="W7" s="8">
+        <v>12.039338611005</v>
+      </c>
+      <c r="X7" s="8">
+        <v>60</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.738295477081907</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>0.840735383531671</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>2.47386372201892</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>2016</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>161.744170189862</v>
+      </c>
+      <c r="AI7" s="11">
+        <v>2.1039603960396</v>
+      </c>
+      <c r="AJ7" s="8">
+        <v>69.1033892294991</v>
+      </c>
+      <c r="AK7" s="8">
+        <v>-1.12070707457531</v>
+      </c>
+      <c r="AL7" s="8">
+        <v>-1.72557917075954</v>
+      </c>
+      <c r="AM7" s="8">
+        <v>23.2265236554518</v>
+      </c>
+      <c r="AN7" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>0.434166996047431</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>137.467266122901</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="8">
+        <v>0.0247601976284585</v>
+      </c>
+      <c r="AS7" s="8">
+        <v>-100</v>
+      </c>
+      <c r="AT7" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="AU7" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="8">
+        <v>-1.85211146137525</v>
+      </c>
+      <c r="AW7" s="8">
+        <v>47176.1</v>
+      </c>
+      <c r="AX7" s="8">
+        <v>8.56650452755847</v>
+      </c>
+      <c r="AY7" s="8">
+        <v>102.25952100414</v>
+      </c>
+      <c r="AZ7" s="8">
+        <v>87.9049809543392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="10">
+        <v>170000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.69893194651774</v>
+      </c>
+      <c r="D8" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>20.049504950495</v>
+      </c>
+      <c r="F8" s="8">
+        <v>47.2946639175258</v>
+      </c>
+      <c r="G8" s="4">
+        <v>75.0968438141126</v>
+      </c>
+      <c r="H8" s="8">
+        <v>70</v>
+      </c>
+      <c r="I8" s="8">
+        <v>52.3915077316384</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1.18041770902162</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5999.50631568979</v>
+      </c>
+      <c r="L8" s="8">
+        <v>11102.6955052725</v>
+      </c>
+      <c r="M8" s="4">
+        <v>51.5954105873745</v>
+      </c>
+      <c r="N8" s="4">
+        <v>101.674503991901</v>
+      </c>
+      <c r="O8" s="8">
+        <v>6.18505805741215</v>
+      </c>
+      <c r="P8" s="8">
+        <v>40.4840824742268</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>11.4460778404871</v>
+      </c>
+      <c r="R8" s="8">
+        <v>23.8586901199394</v>
+      </c>
+      <c r="S8" s="4">
+        <v>7.30095206229617</v>
+      </c>
+      <c r="T8" s="8">
+        <v>82174.3008925185</v>
+      </c>
+      <c r="U8" s="4">
+        <v>69.4001299802111</v>
+      </c>
+      <c r="V8" s="8">
+        <v>42.074285480594</v>
+      </c>
+      <c r="W8" s="8">
+        <v>11.0468980574</v>
+      </c>
+      <c r="X8" s="8">
+        <v>60</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.893343036579568</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="8">
+        <v>1.05451794060967</v>
+      </c>
+      <c r="AE8" s="8">
+        <v>1.61054134393416</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>2017</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>101.674503991901</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>1.85567010309278</v>
+      </c>
+      <c r="AJ8" s="8">
+        <v>69.4001299802111</v>
+      </c>
+      <c r="AK8" s="8">
+        <v>-1.12965514953556</v>
+      </c>
+      <c r="AL8" s="8">
+        <v>-0.452619368438922</v>
+      </c>
+      <c r="AM8" s="8">
+        <v>15.8120568903676</v>
+      </c>
+      <c r="AN8" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AU8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="8">
+        <v>-1.33765559421311</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>57730.44</v>
+      </c>
+      <c r="AX8" s="8">
+        <v>7.30095206229617</v>
+      </c>
+      <c r="AY8" s="8">
+        <v>54.9413274059766</v>
+      </c>
+      <c r="AZ8" s="8">
+        <v>75.0968438141126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="8">
+        <v>0</v>
+      </c>
+      <c r="B9" s="10">
+        <v>170000</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.65617725033631</v>
+      </c>
+      <c r="D9" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>15.4639175257732</v>
+      </c>
+      <c r="F9" s="8">
+        <v>45.47125</v>
+      </c>
+      <c r="G9" s="4">
+        <v>73.3696257875251</v>
+      </c>
+      <c r="H9" s="8">
+        <v>70</v>
+      </c>
+      <c r="I9" s="8">
+        <v>48.8408757875251</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.18545754704969</v>
+      </c>
+      <c r="K9" s="8">
+        <v>6434.0899157479</v>
+      </c>
+      <c r="L9" s="8">
+        <v>13211.0106355202</v>
+      </c>
+      <c r="M9" s="4">
+        <v>69.1278174563822</v>
+      </c>
+      <c r="N9" s="4">
+        <v>150.319321288211</v>
+      </c>
+      <c r="O9" s="8">
+        <v>5.74472313906063</v>
+      </c>
+      <c r="P9" s="8">
+        <v>39.3726785714286</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>11.7955452102859</v>
+      </c>
+      <c r="R9" s="8">
+        <v>22.1719668652416</v>
+      </c>
+      <c r="S9" s="4">
+        <v>6.8101254009104</v>
+      </c>
+      <c r="T9" s="8">
+        <v>94478.2883864043</v>
+      </c>
+      <c r="U9" s="4">
+        <v>69.2857901566343</v>
+      </c>
+      <c r="V9" s="8">
+        <v>46.7968763217046</v>
+      </c>
+      <c r="W9" s="8">
+        <v>9.48689783449034</v>
+      </c>
+      <c r="X9" s="8">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>1.01477030846623</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>1.20296712069324</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>0.94642385633577</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>2018</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>150.319321288211</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>1.60714285714286</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>69.2857901566343</v>
+      </c>
+      <c r="AK9" s="8">
+        <v>-1.11140390279825</v>
+      </c>
+      <c r="AL9" s="8">
+        <v>0.34946736979885</v>
+      </c>
+      <c r="AM9" s="8">
+        <v>14.9730358034674</v>
+      </c>
+      <c r="AN9" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>200</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AR9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AS9" s="8">
+        <v>100</v>
+      </c>
+      <c r="AT9" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="AU9" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="8">
+        <v>-0.440334918351527</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>67902.6</v>
+      </c>
+      <c r="AX9" s="8">
+        <v>6.8101254009104</v>
+      </c>
+      <c r="AY9" s="8">
+        <v>73.2092385606091</v>
+      </c>
+      <c r="AZ9" s="8">
+        <v>73.3696257875251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="8">
+        <v>0</v>
+      </c>
+      <c r="B10" s="10">
+        <v>170000</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3.61248344714512</v>
+      </c>
+      <c r="D10" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>15.1785714285714</v>
+      </c>
+      <c r="F10" s="8">
+        <v>41.0979224806202</v>
+      </c>
+      <c r="G10" s="4">
+        <v>64.0190269177303</v>
+      </c>
+      <c r="H10" s="8">
+        <v>70</v>
+      </c>
+      <c r="I10" s="8">
+        <v>35.1169493983505</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1.20828907724398</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6408.99338695048</v>
+      </c>
+      <c r="L10" s="8">
+        <v>14097.3614995771</v>
+      </c>
+      <c r="M10" s="4">
+        <v>76.7424883765551</v>
+      </c>
+      <c r="N10" s="4">
+        <v>178.98250893457</v>
+      </c>
+      <c r="O10" s="8">
+        <v>4.96821192786859</v>
+      </c>
+      <c r="P10" s="8">
+        <v>38.6589147286822</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>10.9281872089745</v>
+      </c>
+      <c r="R10" s="8">
+        <v>19.5363960559582</v>
+      </c>
+      <c r="S10" s="4">
+        <v>6.00303620587688</v>
+      </c>
+      <c r="T10" s="8">
+        <v>106762.530945194</v>
+      </c>
+      <c r="U10" s="4">
+        <v>69.2732729373929</v>
+      </c>
+      <c r="V10" s="8">
+        <v>44.4438989554649</v>
+      </c>
+      <c r="W10" s="8">
+        <v>7.82177336839575</v>
+      </c>
+      <c r="X10" s="8">
+        <v>60</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>1.09034321355208</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="8">
+        <v>1.31744979538208</v>
+      </c>
+      <c r="AE10" s="8">
+        <v>0.543184587442818</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>2019</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>178.98250893457</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>1.3953488372093</v>
+      </c>
+      <c r="AJ10" s="8">
+        <v>69.2732729373929</v>
+      </c>
+      <c r="AK10" s="8">
+        <v>-0.713763842746388</v>
+      </c>
+      <c r="AL10" s="8">
+        <v>-0.867358001311431</v>
+      </c>
+      <c r="AM10" s="8">
+        <v>13.002185759916</v>
+      </c>
+      <c r="AN10" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AR10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="AU10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="8">
+        <v>-0.776511211192036</v>
+      </c>
+      <c r="AW10" s="8">
+        <v>79130</v>
+      </c>
+      <c r="AX10" s="8">
+        <v>6.00303620587688</v>
+      </c>
+      <c r="AY10" s="8">
+        <v>81.3696744724802</v>
+      </c>
+      <c r="AZ10" s="8">
+        <v>64.0190269177303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="8">
+        <v>0</v>
+      </c>
+      <c r="B11" s="10">
+        <v>170000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3.48343121647115</v>
+      </c>
+      <c r="D11" s="3">
+        <v>151700</v>
+      </c>
+      <c r="E11" s="8">
+        <v>17.5968992248062</v>
+      </c>
+      <c r="F11" s="8">
+        <v>39.0985998681608</v>
+      </c>
+      <c r="G11" s="4">
+        <v>57.4855266106263</v>
+      </c>
+      <c r="H11" s="8">
+        <v>70</v>
+      </c>
+      <c r="I11" s="8">
+        <v>26.5841264787872</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.2446695272915</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7194.03816551544</v>
+      </c>
+      <c r="L11" s="8">
+        <v>16300.86113381</v>
+      </c>
+      <c r="M11" s="4">
+        <v>90.2474681404553</v>
+      </c>
+      <c r="N11" s="4">
+        <v>215.90608864</v>
+      </c>
+      <c r="O11" s="8">
+        <v>4.74227960811828</v>
+      </c>
+      <c r="P11" s="8">
+        <v>38.2213579433092</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>10.7454588884707</v>
+      </c>
+      <c r="R11" s="8">
+        <v>19.1319287879251</v>
+      </c>
+      <c r="S11" s="4">
+        <v>5.90257091812071</v>
+      </c>
+      <c r="T11" s="8">
+        <v>121879.741307808</v>
+      </c>
+      <c r="U11" s="4">
+        <v>69.1486941362837</v>
+      </c>
+      <c r="V11" s="8">
+        <v>38.7742621473794</v>
+      </c>
+      <c r="W11" s="8">
+        <v>6.39861744786583</v>
+      </c>
+      <c r="X11" s="8">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>1.10516990473446</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>1.37557130290264</v>
+      </c>
+      <c r="AE11" s="8">
+        <v>0.5273566249176</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>2020</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>215.90608864</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>1.1865524060646</v>
+      </c>
+      <c r="AJ11" s="8">
+        <v>69.1486941362837</v>
+      </c>
+      <c r="AK11" s="8">
+        <v>-0.437556785373012</v>
+      </c>
+      <c r="AL11" s="8">
+        <v>-0.182728320503819</v>
+      </c>
+      <c r="AM11" s="8">
+        <v>14.1596590384081</v>
+      </c>
+      <c r="AN11" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AR11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="8">
+        <v>3</v>
+      </c>
+      <c r="AU11" s="8">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="8">
+        <v>-0.225932319750306</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>93718.2</v>
+      </c>
+      <c r="AX11" s="8">
+        <v>5.90257091812071</v>
+      </c>
+      <c r="AY11" s="8">
+        <v>95.2855575600061</v>
+      </c>
+      <c r="AZ11" s="8">
+        <v>57.4855266106263</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A5:AZ11" columnSort="1">
+    <sortCondition ref="A5:AZ5"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1949,16 +3088,2594 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AV13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.625"/>
+    <col min="7" max="10" width="12.625"/>
+    <col min="12" max="26" width="12.625"/>
+    <col min="29" max="29" width="12.625"/>
+    <col min="31" max="32" width="12.625"/>
+    <col min="34" max="36" width="12.625"/>
+    <col min="37" max="37" width="13.75"/>
+    <col min="41" max="41" width="12.625"/>
+    <col min="44" max="44" width="12.625"/>
+    <col min="47" max="47" width="13.75"/>
+    <col min="48" max="48" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:34">
+      <c r="C1">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>25</v>
+      </c>
+      <c r="E1">
+        <v>36</v>
+      </c>
+      <c r="F1">
+        <v>37</v>
+      </c>
+      <c r="G1">
+        <v>56</v>
+      </c>
+      <c r="H1">
+        <v>76</v>
+      </c>
+      <c r="I1">
+        <v>96</v>
+      </c>
+      <c r="J1">
+        <v>116</v>
+      </c>
+      <c r="K1">
+        <v>136</v>
+      </c>
+      <c r="L1">
+        <v>156</v>
+      </c>
+      <c r="M1">
+        <v>176</v>
+      </c>
+      <c r="N1">
+        <v>216</v>
+      </c>
+      <c r="O1">
+        <v>236</v>
+      </c>
+      <c r="P1">
+        <v>256</v>
+      </c>
+      <c r="Q1">
+        <v>276</v>
+      </c>
+      <c r="R1">
+        <v>296</v>
+      </c>
+      <c r="S1">
+        <v>316</v>
+      </c>
+      <c r="T1">
+        <v>336</v>
+      </c>
+      <c r="U1">
+        <v>356</v>
+      </c>
+      <c r="V1">
+        <v>396</v>
+      </c>
+      <c r="W1">
+        <v>416</v>
+      </c>
+      <c r="X1">
+        <v>436</v>
+      </c>
+      <c r="Y1">
+        <v>496</v>
+      </c>
+      <c r="Z1">
+        <v>516</v>
+      </c>
+      <c r="AA1">
+        <v>556</v>
+      </c>
+      <c r="AB1">
+        <v>596</v>
+      </c>
+      <c r="AC1">
+        <v>796</v>
+      </c>
+      <c r="AD1">
+        <v>816</v>
+      </c>
+      <c r="AE1">
+        <v>856</v>
+      </c>
+      <c r="AF1">
+        <v>876</v>
+      </c>
+      <c r="AG1">
+        <v>896</v>
+      </c>
+      <c r="AH1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="2" spans="22:38">
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="3:47">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>3.70495652087009</v>
+      </c>
+      <c r="E4">
+        <v>79770</v>
+      </c>
+      <c r="F4">
+        <v>66497.2968904682</v>
+      </c>
+      <c r="G4">
+        <v>27.0020697341188</v>
+      </c>
+      <c r="H4">
+        <v>49.3451468973298</v>
+      </c>
+      <c r="I4">
+        <v>85.1619620280002</v>
+      </c>
+      <c r="J4">
+        <v>76</v>
+      </c>
+      <c r="K4">
+        <v>58.50710892533</v>
+      </c>
+      <c r="L4">
+        <v>1.19959763374132</v>
+      </c>
+      <c r="M4">
+        <v>5474.0741165288</v>
+      </c>
+      <c r="N4">
+        <v>6648.04378191076</v>
+      </c>
+      <c r="O4">
+        <v>100.807653127085</v>
+      </c>
+      <c r="P4">
+        <v>122.42685745101</v>
+      </c>
+      <c r="Q4">
+        <v>6.86232182089608</v>
+      </c>
+      <c r="R4">
+        <v>41.8770339726714</v>
+      </c>
+      <c r="S4">
+        <v>8.3340150205726</v>
+      </c>
+      <c r="T4">
+        <v>26.5632573655028</v>
+      </c>
+      <c r="U4">
+        <v>8.23202501831839</v>
+      </c>
+      <c r="V4">
+        <v>15.4850975269711</v>
+      </c>
+      <c r="W4">
+        <v>69.131195913569</v>
+      </c>
+      <c r="X4">
+        <v>31.3475190376051</v>
+      </c>
+      <c r="Y4">
+        <v>11.0385678298388</v>
+      </c>
+      <c r="Z4">
+        <v>60</v>
+      </c>
+      <c r="AB4">
+        <v>46364.69</v>
+      </c>
+      <c r="AC4">
+        <v>1900</v>
+      </c>
+      <c r="AD4">
+        <v>2.38184781246082</v>
+      </c>
+      <c r="AE4">
+        <v>0.522179698485873</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.626405530691412</v>
+      </c>
+      <c r="AH4">
+        <v>2.35677573022439</v>
+      </c>
+      <c r="AI4">
+        <v>2.25648740127868</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.857410725666263</v>
+      </c>
+      <c r="AL4">
+        <v>0.91</v>
+      </c>
+      <c r="AO4">
+        <v>-0.32</v>
+      </c>
+      <c r="AR4">
+        <v>1.8</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>-2.51250329210443</v>
+      </c>
+      <c r="AU4">
+        <v>85.1619620280002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>3.74286192680809</v>
+      </c>
+      <c r="E5">
+        <v>95300</v>
+      </c>
+      <c r="F5">
+        <v>78821.9996337239</v>
+      </c>
+      <c r="G5">
+        <v>19.4684718565877</v>
+      </c>
+      <c r="H5">
+        <v>44.8915173137461</v>
+      </c>
+      <c r="I5">
+        <v>81.3312053098665</v>
+      </c>
+      <c r="J5">
+        <v>82.15</v>
+      </c>
+      <c r="K5">
+        <v>44.0727226236125</v>
+      </c>
+      <c r="L5">
+        <v>1.20905331560792</v>
+      </c>
+      <c r="M5">
+        <v>5626.91271317891</v>
+      </c>
+      <c r="N5">
+        <v>6954.52960719245</v>
+      </c>
+      <c r="O5">
+        <v>204.598718718477</v>
+      </c>
+      <c r="P5">
+        <v>252.871853439046</v>
+      </c>
+      <c r="Q5">
+        <v>5.90442047552876</v>
+      </c>
+      <c r="R5">
+        <v>40.7407653799038</v>
+      </c>
+      <c r="S5">
+        <v>7.29751270429428</v>
+      </c>
+      <c r="T5">
+        <v>23.6468446457095</v>
+      </c>
+      <c r="U5">
+        <v>7.13875915268133</v>
+      </c>
+      <c r="V5">
+        <v>18.5341409644913</v>
+      </c>
+      <c r="W5">
+        <v>69.913416931888</v>
+      </c>
+      <c r="X5">
+        <v>27.1478560620826</v>
+      </c>
+      <c r="Y5">
+        <v>11.6656778274886</v>
+      </c>
+      <c r="Z5">
+        <v>60</v>
+      </c>
+      <c r="AB5">
+        <v>56474.0505929517</v>
+      </c>
+      <c r="AC5">
+        <v>1906</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
+      </c>
+      <c r="AE5">
+        <v>0.437085777001239</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0.528460007888412</v>
+      </c>
+      <c r="AH5">
+        <v>4.28517451436607</v>
+      </c>
+      <c r="AI5">
+        <v>1.99370409233998</v>
+      </c>
+      <c r="AJ5">
+        <v>-1.13626859276768</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0.09</v>
+      </c>
+      <c r="AN5">
+        <v>9.89010989010988</v>
+      </c>
+      <c r="AO5">
+        <v>-0.32</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>100</v>
+      </c>
+      <c r="AR5">
+        <v>2.2</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>-0.957901345367312</v>
+      </c>
+      <c r="AU5">
+        <v>81.3312053098665</v>
+      </c>
+      <c r="AV5" s="4"/>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>2.96802765175824</v>
+      </c>
+      <c r="E6">
+        <v>111700</v>
+      </c>
+      <c r="F6">
+        <v>90552.9323843041</v>
+      </c>
+      <c r="G6">
+        <v>17.208814270724</v>
+      </c>
+      <c r="H6">
+        <v>50.955036705461</v>
+      </c>
+      <c r="I6">
+        <v>73.0645887983442</v>
+      </c>
+      <c r="J6">
+        <v>78.84</v>
+      </c>
+      <c r="K6">
+        <v>45.1796255038052</v>
+      </c>
+      <c r="L6">
+        <v>1.23353266491634</v>
+      </c>
+      <c r="M6">
+        <v>6303.4920628682</v>
+      </c>
+      <c r="N6">
+        <v>7770.74432987207</v>
+      </c>
+      <c r="O6">
+        <v>166.888926874101</v>
+      </c>
+      <c r="P6">
+        <v>205.735355782342</v>
+      </c>
+      <c r="Q6">
+        <v>5.64323371787663</v>
+      </c>
+      <c r="R6">
+        <v>40.0893897036172</v>
+      </c>
+      <c r="S6">
+        <v>6.95679886291143</v>
+      </c>
+      <c r="T6">
+        <v>22.7337450496589</v>
+      </c>
+      <c r="U6">
+        <v>6.96111312675812</v>
+      </c>
+      <c r="V6">
+        <v>14.882815464074</v>
+      </c>
+      <c r="W6">
+        <v>69.4690200405354</v>
+      </c>
+      <c r="X6">
+        <v>23.2981959136429</v>
+      </c>
+      <c r="Y6">
+        <v>12.3206429078821</v>
+      </c>
+      <c r="Z6">
+        <v>60</v>
+      </c>
+      <c r="AB6">
+        <v>66920.1517010596</v>
+      </c>
+      <c r="AC6">
+        <v>2234</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>0.372912037137136</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0.459999178949153</v>
+      </c>
+      <c r="AH6">
+        <v>4.0220079742449</v>
+      </c>
+      <c r="AI6">
+        <v>1.7905102954342</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.651375676286597</v>
+      </c>
+      <c r="AL6">
+        <v>1.5</v>
+      </c>
+      <c r="AM6">
+        <v>0.5</v>
+      </c>
+      <c r="AN6">
+        <v>50</v>
+      </c>
+      <c r="AO6">
+        <v>0.3</v>
+      </c>
+      <c r="AP6">
+        <v>0.62</v>
+      </c>
+      <c r="AQ6">
+        <v>-93.75</v>
+      </c>
+      <c r="AR6">
+        <v>3.2</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>-0.261186757652134</v>
+      </c>
+      <c r="AU6">
+        <v>73.0645887983442</v>
+      </c>
+      <c r="AV6" s="6"/>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>2.91447950626786</v>
+      </c>
+      <c r="E7">
+        <v>130700</v>
+      </c>
+      <c r="F7">
+        <v>106408.108996253</v>
+      </c>
+      <c r="G7">
+        <v>17.0098478066249</v>
+      </c>
+      <c r="H7">
+        <v>43.7856281560826</v>
+      </c>
+      <c r="I7">
+        <v>68.8485453232951</v>
+      </c>
+      <c r="J7">
+        <v>80.1</v>
+      </c>
+      <c r="K7">
+        <v>32.5341734793778</v>
+      </c>
+      <c r="L7">
+        <v>1.22828984776529</v>
+      </c>
+      <c r="M7">
+        <v>7117.93634499578</v>
+      </c>
+      <c r="N7">
+        <v>8764.70043639639</v>
+      </c>
+      <c r="O7">
+        <v>206.511808575133</v>
+      </c>
+      <c r="P7">
+        <v>254.28917189067</v>
+      </c>
+      <c r="Q7">
+        <v>5.44601097551322</v>
+      </c>
+      <c r="R7">
+        <v>40.0925856027605</v>
+      </c>
+      <c r="S7">
+        <v>6.70596819923213</v>
+      </c>
+      <c r="T7">
+        <v>22.0512213198865</v>
+      </c>
+      <c r="U7">
+        <v>6.6892799920412</v>
+      </c>
+      <c r="V7">
+        <v>17.5092911896661</v>
+      </c>
+      <c r="W7">
+        <v>69.7407164617737</v>
+      </c>
+      <c r="X7">
+        <v>20.0129479700413</v>
+      </c>
+      <c r="Y7">
+        <v>11.4869817832675</v>
+      </c>
+      <c r="Z7">
+        <v>60</v>
+      </c>
+      <c r="AB7">
+        <v>78298.990617192</v>
+      </c>
+      <c r="AC7">
+        <v>2614</v>
+      </c>
+      <c r="AD7">
+        <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>0.318701411998608</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.391457708826352</v>
+      </c>
+      <c r="AH7">
+        <v>2.78605711907649</v>
+      </c>
+      <c r="AI7">
+        <v>1.60673297628156</v>
+      </c>
+      <c r="AJ7">
+        <v>0.0031958991433656</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0.5</v>
+      </c>
+      <c r="AN7">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AO7">
+        <v>0.8</v>
+      </c>
+      <c r="AP7">
+        <v>0.5</v>
+      </c>
+      <c r="AQ7">
+        <v>266.666666666667</v>
+      </c>
+      <c r="AR7">
+        <v>4.2</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>-0.197222742363411</v>
+      </c>
+      <c r="AU7">
+        <v>68.8485453232951</v>
+      </c>
+      <c r="AV7" s="4"/>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>2.33335139602524</v>
+      </c>
+      <c r="E8">
+        <v>150300</v>
+      </c>
+      <c r="F8">
+        <v>122835.883426038</v>
+      </c>
+      <c r="G8">
+        <v>14.9961744452946</v>
+      </c>
+      <c r="H8">
+        <v>44.1732960745176</v>
+      </c>
+      <c r="I8">
+        <v>67.171743528991</v>
+      </c>
+      <c r="J8">
+        <v>77.68</v>
+      </c>
+      <c r="K8">
+        <v>33.6650396035086</v>
+      </c>
+      <c r="L8">
+        <v>1.22358382426988</v>
+      </c>
+      <c r="M8">
+        <v>8368.48480130522</v>
+      </c>
+      <c r="N8">
+        <v>10265.009116693</v>
+      </c>
+      <c r="O8">
+        <v>158.76784468573</v>
+      </c>
+      <c r="P8">
+        <v>194.748919527525</v>
+      </c>
+      <c r="Q8">
+        <v>5.56785415921838</v>
+      </c>
+      <c r="R8">
+        <v>40.0489206531779</v>
+      </c>
+      <c r="S8">
+        <v>6.82968005102658</v>
+      </c>
+      <c r="T8">
+        <v>22.1261883303853</v>
+      </c>
+      <c r="U8">
+        <v>6.81273628511337</v>
+      </c>
+      <c r="V8">
+        <v>15.4384610202617</v>
+      </c>
+      <c r="W8">
+        <v>69.2753806755693</v>
+      </c>
+      <c r="X8">
+        <v>17.0801740109507</v>
+      </c>
+      <c r="Y8">
+        <v>10.4174400893068</v>
+      </c>
+      <c r="Z8">
+        <v>60</v>
+      </c>
+      <c r="AB8">
+        <v>90106.4722582736</v>
+      </c>
+      <c r="AC8">
+        <v>3006</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>0.277140881891005</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0.339105100125723</v>
+      </c>
+      <c r="AH8">
+        <v>2.23438088340601</v>
+      </c>
+      <c r="AI8">
+        <v>1.46373918829009</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.0436649495826336</v>
+      </c>
+      <c r="AL8">
+        <v>2.5</v>
+      </c>
+      <c r="AM8">
+        <v>0.5</v>
+      </c>
+      <c r="AN8">
+        <v>25</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0.2</v>
+      </c>
+      <c r="AQ8">
+        <v>125</v>
+      </c>
+      <c r="AR8">
+        <v>4.5</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>0.121843183705156</v>
+      </c>
+      <c r="AU8">
+        <v>67.171743528991</v>
+      </c>
+      <c r="AV8" s="4"/>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>2.10861812461161</v>
+      </c>
+      <c r="E9">
+        <v>172500</v>
+      </c>
+      <c r="F9">
+        <v>141480.169898242</v>
+      </c>
+      <c r="G9">
+        <v>14.7704590818363</v>
+      </c>
+      <c r="H9">
+        <v>44.1732960745176</v>
+      </c>
+      <c r="I9">
+        <v>65.9933604954705</v>
+      </c>
+      <c r="J9">
+        <v>79.41</v>
+      </c>
+      <c r="K9">
+        <v>30.7566565699882</v>
+      </c>
+      <c r="L9">
+        <v>1.21925214059376</v>
+      </c>
+      <c r="M9">
+        <v>9284.33678746499</v>
+      </c>
+      <c r="N9">
+        <v>11097.4610299209</v>
+      </c>
+      <c r="O9">
+        <v>178.616790593196</v>
+      </c>
+      <c r="P9">
+        <v>213.49859642896</v>
+      </c>
+      <c r="Q9">
+        <v>5.38222422461738</v>
+      </c>
+      <c r="R9">
+        <v>39.6166525205649</v>
+      </c>
+      <c r="S9">
+        <v>6.43331074198314</v>
+      </c>
+      <c r="T9">
+        <v>21.1971047224449</v>
+      </c>
+      <c r="U9">
+        <v>6.56228840702032</v>
+      </c>
+      <c r="V9">
+        <v>15.1782084780059</v>
+      </c>
+      <c r="W9">
+        <v>69.0986715035118</v>
+      </c>
+      <c r="X9">
+        <v>14.7488506332376</v>
+      </c>
+      <c r="Y9">
+        <v>9.71044533941359</v>
+      </c>
+      <c r="Z9">
+        <v>60</v>
+      </c>
+      <c r="AB9">
+        <v>104161.274402026</v>
+      </c>
+      <c r="AC9">
+        <v>3450</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>0.241474055351989</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0.294417758885768</v>
+      </c>
+      <c r="AH9">
+        <v>2.40579710144928</v>
+      </c>
+      <c r="AI9">
+        <v>1.39130434782609</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.432268132612995</v>
+      </c>
+      <c r="AL9">
+        <v>2.5</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>100</v>
+      </c>
+      <c r="AR9">
+        <v>4.5</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>-0.185629934600991</v>
+      </c>
+      <c r="AU9">
+        <v>65.9933604954705</v>
+      </c>
+      <c r="AV9" s="4"/>
+    </row>
+    <row r="10" spans="2:48">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+    </row>
+    <row r="11" spans="2:48">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+    </row>
+    <row r="12" spans="2:48">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+    </row>
+    <row r="13" spans="2:48">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+    </row>
+  </sheetData>
+  <sortState ref="D17:AV25" columnSort="1">
+    <sortCondition ref="D17:AV17"/>
+  </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="C3:BH11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7:AE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="6" max="6" width="12.625"/>
+    <col min="8" max="16" width="12.625"/>
+    <col min="17" max="17" width="13.75"/>
+    <col min="18" max="28" width="12.625"/>
+    <col min="30" max="34" width="12.625"/>
+    <col min="35" max="35" width="13.75"/>
+    <col min="36" max="37" width="12.625"/>
+    <col min="38" max="38" width="13.75"/>
+    <col min="42" max="42" width="12.625"/>
+    <col min="45" max="45" width="12.625"/>
+    <col min="48" max="48" width="13.75"/>
+    <col min="49" max="49" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:60">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36</v>
+      </c>
+      <c r="H3" s="1">
+        <v>56</v>
+      </c>
+      <c r="I3" s="1">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1">
+        <v>96</v>
+      </c>
+      <c r="K3" s="1">
+        <v>116</v>
+      </c>
+      <c r="L3" s="1">
+        <v>136</v>
+      </c>
+      <c r="M3" s="1">
+        <v>156</v>
+      </c>
+      <c r="N3" s="1">
+        <v>216</v>
+      </c>
+      <c r="O3" s="1">
+        <v>236</v>
+      </c>
+      <c r="P3" s="1">
+        <v>256</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>276</v>
+      </c>
+      <c r="R3" s="1">
+        <v>296</v>
+      </c>
+      <c r="S3" s="1">
+        <v>316</v>
+      </c>
+      <c r="T3" s="1">
+        <v>336</v>
+      </c>
+      <c r="U3" s="1">
+        <v>356</v>
+      </c>
+      <c r="V3" s="1">
+        <v>396</v>
+      </c>
+      <c r="W3" s="1">
+        <v>416</v>
+      </c>
+      <c r="X3" s="1">
+        <v>436</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>496</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>516</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>556</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>596</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>796</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>816</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>856</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>876</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>896</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>916</v>
+      </c>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+    </row>
+    <row r="4" spans="3:60">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+    </row>
+    <row r="5" spans="3:60">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:60">
+      <c r="C6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.70495652087009</v>
+      </c>
+      <c r="G6" s="1">
+        <v>79770</v>
+      </c>
+      <c r="H6" s="1">
+        <v>27.0020697341188</v>
+      </c>
+      <c r="I6" s="1">
+        <v>49.3451468973298</v>
+      </c>
+      <c r="J6" s="1">
+        <v>85.1619620280002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>76</v>
+      </c>
+      <c r="L6" s="1">
+        <v>58.50710892533</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.19959763374132</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6648.04378191076</v>
+      </c>
+      <c r="O6" s="1">
+        <v>100.807653127085</v>
+      </c>
+      <c r="P6" s="1">
+        <v>122.42685745101</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>6.86232182089608</v>
+      </c>
+      <c r="R6" s="1">
+        <v>41.8770339726714</v>
+      </c>
+      <c r="S6" s="1">
+        <v>8.3340150205726</v>
+      </c>
+      <c r="T6" s="1">
+        <v>26.5632573655028</v>
+      </c>
+      <c r="U6" s="1">
+        <v>8.23202501831839</v>
+      </c>
+      <c r="V6" s="1">
+        <v>66497.2968904682</v>
+      </c>
+      <c r="W6" s="1">
+        <v>69.131195913569</v>
+      </c>
+      <c r="X6" s="1">
+        <v>31.3475190376051</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>11.0385678298388</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>46364.69</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1900</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2.38184781246082</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.522179698485873</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.626405530691412</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>2.35677573022439</v>
+      </c>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1">
+        <v>15.4850975269711</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2.25648740127868</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>-0.857410725666263</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>-2.51250329210443</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>5474.0741165288</v>
+      </c>
+      <c r="AX6" s="1"/>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="1"/>
+      <c r="BA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="1"/>
+      <c r="BD6" s="1">
+        <v>28.9254312107032</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>3.75470623252821</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>34.2144607488937</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>2.70736655725418</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>20.8569566469873</v>
+      </c>
+    </row>
+    <row r="7" spans="3:60">
+      <c r="C7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.74286192680809</v>
+      </c>
+      <c r="G7" s="1">
+        <v>95300</v>
+      </c>
+      <c r="H7" s="1">
+        <v>19.4684718565877</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44.9491173137461</v>
+      </c>
+      <c r="J7" s="1">
+        <v>81.3312053098665</v>
+      </c>
+      <c r="K7" s="1">
+        <v>63.96</v>
+      </c>
+      <c r="L7" s="1">
+        <v>44.1303226236126</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.20714764728904</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7362.58652528</v>
+      </c>
+      <c r="O7" s="1">
+        <v>159.73366340869</v>
+      </c>
+      <c r="P7" s="1">
+        <v>197.004330976331</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6.26409289021244</v>
+      </c>
+      <c r="R7" s="1">
+        <v>40.7407653799038</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7.72569415034628</v>
+      </c>
+      <c r="T7" s="1">
+        <v>24.7310681160501</v>
+      </c>
+      <c r="U7" s="1">
+        <v>7.56168499481992</v>
+      </c>
+      <c r="V7" s="1">
+        <v>78946.4322893898</v>
+      </c>
+      <c r="W7" s="1">
+        <v>69.5266606618091</v>
+      </c>
+      <c r="X7" s="1">
+        <v>38.6189874041969</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>12.3172328462995</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>56474.0505929517</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>1906</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.437085777001239</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.527627067370546</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>4.93809024134313</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>-0.608320870226318</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>18.7212653462099</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>1.99370409233998</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>-1.13626859276768</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>9.89010989010988</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>100</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>-0.598228930683635</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>5969.68052437246</v>
+      </c>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+    </row>
+    <row r="8" spans="3:60">
+      <c r="C8" s="1">
+        <v>2018</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.96802765175824</v>
+      </c>
+      <c r="G8" s="1">
+        <v>111700</v>
+      </c>
+      <c r="H8" s="1">
+        <v>17.208814270724</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50.6958367054611</v>
+      </c>
+      <c r="J8" s="1">
+        <v>73.0645887983442</v>
+      </c>
+      <c r="K8" s="1">
+        <v>61.21</v>
+      </c>
+      <c r="L8" s="1">
+        <v>44.9204255038052</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.20939968251922</v>
+      </c>
+      <c r="N8" s="1">
+        <v>8134.29505148849</v>
+      </c>
+      <c r="O8" s="1">
+        <v>134.510017079162</v>
+      </c>
+      <c r="P8" s="1">
+        <v>165.556803706782</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5.91662906806266</v>
+      </c>
+      <c r="R8" s="1">
+        <v>40.0893897036172</v>
+      </c>
+      <c r="S8" s="1">
+        <v>7.2822695178948</v>
+      </c>
+      <c r="T8" s="1">
+        <v>23.454986380873</v>
+      </c>
+      <c r="U8" s="1">
+        <v>7.15556931649899</v>
+      </c>
+      <c r="V8" s="1">
+        <v>92359.8721039226</v>
+      </c>
+      <c r="W8" s="1">
+        <v>69.5797848896099</v>
+      </c>
+      <c r="X8" s="1">
+        <v>43.6351227697489</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>12.8270163427686</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>66920.1517010596</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>2234</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.372912037137136</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.450999699321249</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>4.32766338406446</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>-0.443424632451476</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>16.9905585668063</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>1.7905102954342</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>-0.651375676286597</v>
+      </c>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>-93.75</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>-0.34746382214978</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>6608.87466902599</v>
+      </c>
+      <c r="AX8" s="1"/>
+      <c r="AY8" s="1"/>
+      <c r="AZ8" s="1"/>
+      <c r="BA8" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB8" s="1"/>
+      <c r="BC8" s="1"/>
+      <c r="BD8" s="1"/>
+      <c r="BE8" s="1"/>
+      <c r="BF8" s="1"/>
+      <c r="BG8" s="1"/>
+      <c r="BH8" s="1"/>
+    </row>
+    <row r="9" spans="3:60">
+      <c r="C9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.91447950626786</v>
+      </c>
+      <c r="G9" s="1">
+        <v>130700</v>
+      </c>
+      <c r="H9" s="1">
+        <v>17.0098478066249</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43.6992281560826</v>
+      </c>
+      <c r="J9" s="1">
+        <v>68.8485453232951</v>
+      </c>
+      <c r="K9" s="1">
+        <v>57.41</v>
+      </c>
+      <c r="L9" s="1">
+        <v>32.4477734793778</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.21790271632065</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9082.41672586166</v>
+      </c>
+      <c r="O9" s="1">
+        <v>195.100597776795</v>
+      </c>
+      <c r="P9" s="1">
+        <v>239.949708404432</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5.65020507126749</v>
+      </c>
+      <c r="R9" s="1">
+        <v>40.0925856027605</v>
+      </c>
+      <c r="S9" s="1">
+        <v>6.9490564084634</v>
+      </c>
+      <c r="T9" s="1">
+        <v>22.4969519966687</v>
+      </c>
+      <c r="U9" s="1">
+        <v>6.88140010406536</v>
+      </c>
+      <c r="V9" s="1">
+        <v>107315.632232804</v>
+      </c>
+      <c r="W9" s="1">
+        <v>69.4871208943626</v>
+      </c>
+      <c r="X9" s="1">
+        <v>38.8992090191772</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>13.4301799800526</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>78298.990617192</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2614</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.318701411998608</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.38814731536833</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>4.14231063504208</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>-0.333213109431402</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>16.192919920952</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>1.60673297628156</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0.0031958991433656</v>
+      </c>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>266.666666666667</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>-0.266423996795175</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>7384.8180281466</v>
+      </c>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+      <c r="AZ9" s="1"/>
+      <c r="BA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB9" s="1"/>
+      <c r="BC9" s="1"/>
+      <c r="BD9" s="1"/>
+      <c r="BE9" s="1"/>
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1"/>
+      <c r="BH9" s="1"/>
+    </row>
+    <row r="10" spans="3:60">
+      <c r="C10" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.33335139602524</v>
+      </c>
+      <c r="G10" s="1">
+        <v>150300</v>
+      </c>
+      <c r="H10" s="1">
+        <v>14.9961744452946</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44.2020960745176</v>
+      </c>
+      <c r="J10" s="1">
+        <v>67.171743528991</v>
+      </c>
+      <c r="K10" s="1">
+        <v>58.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>33.6938396035086</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.19283013180863</v>
+      </c>
+      <c r="N10" s="1">
+        <v>10506.4303326153</v>
+      </c>
+      <c r="O10" s="1">
+        <v>167.684777412961</v>
+      </c>
+      <c r="P10" s="1">
+        <v>205.543246146224</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5.70278018807717</v>
+      </c>
+      <c r="R10" s="1">
+        <v>40.0489206531779</v>
+      </c>
+      <c r="S10" s="1">
+        <v>6.99030627585848</v>
+      </c>
+      <c r="T10" s="1">
+        <v>22.3029361114124</v>
+      </c>
+      <c r="U10" s="1">
+        <v>6.80244804341976</v>
+      </c>
+      <c r="V10" s="1">
+        <v>126002.853207696</v>
+      </c>
+      <c r="W10" s="1">
+        <v>69.5638671075387</v>
+      </c>
+      <c r="X10" s="1">
+        <v>38.3412764966107</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>14.2354045422796</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>90106.4722582736</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>3006</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.277140881891005</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.330581994675609</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>4.46174318030605</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.0412498673950843</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>17.4133260794219</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1.46373918829009</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>-0.0436649495826336</v>
+      </c>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>25</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>125</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>0.0525751168096846</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>8571.27862267999</v>
+      </c>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
+    </row>
+    <row r="11" spans="3:60">
+      <c r="C11" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.10861812461161</v>
+      </c>
+      <c r="G11" s="1">
+        <v>172500</v>
+      </c>
+      <c r="H11" s="1">
+        <v>14.7704590818363</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44.2020960745176</v>
+      </c>
+      <c r="J11" s="1">
+        <v>65.9933604954705</v>
+      </c>
+      <c r="K11" s="1">
+        <v>57.13</v>
+      </c>
+      <c r="L11" s="1">
+        <v>30.7854565699882</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.18190903444256</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11365.9269716895</v>
+      </c>
+      <c r="O11" s="1">
+        <v>177.478347398676</v>
+      </c>
+      <c r="P11" s="1">
+        <v>212.05771059607</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5.51451179012655</v>
+      </c>
+      <c r="R11" s="1">
+        <v>39.6166525205649</v>
+      </c>
+      <c r="S11" s="1">
+        <v>6.58894317199392</v>
+      </c>
+      <c r="T11" s="1">
+        <v>21.3564569395036</v>
+      </c>
+      <c r="U11" s="1">
+        <v>6.5176513052906</v>
+      </c>
+      <c r="V11" s="1">
+        <v>145950.318487377</v>
+      </c>
+      <c r="W11" s="1">
+        <v>69.5369305295077</v>
+      </c>
+      <c r="X11" s="1">
+        <v>37.4727350590032</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>12.6543169486319</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>104161.274402026</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>3450</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.241474055351989</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.285400367604</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>2.40579710144928</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-0.40136310386456</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>15.8309631662074</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1.39130434782609</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>-0.432268132612995</v>
+      </c>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>100</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>-0.188268397950624</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>9512.53283796829</v>
+      </c>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1">
+        <v>2</v>
+      </c>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="1"/>
+      <c r="BE11" s="1"/>
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1"/>
+      <c r="BH11" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="E3:AJ11" columnSort="1">
+    <sortCondition ref="E3:AJ3"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>